--- a/data/pca/factorExposure/factorExposure_2013-02-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-02-22.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0001163189041567685</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.002023198761759016</v>
+      </c>
+      <c r="C2">
+        <v>-0.03169969636877121</v>
+      </c>
+      <c r="D2">
+        <v>0.00338448650904999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001804364179599063</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.00617417154787787</v>
+      </c>
+      <c r="C4">
+        <v>-0.08426479020397631</v>
+      </c>
+      <c r="D4">
+        <v>0.07896059168499073</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0002622397601075849</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.0137397873336344</v>
+      </c>
+      <c r="C6">
+        <v>-0.1123446672131924</v>
+      </c>
+      <c r="D6">
+        <v>0.03077143511948722</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001410361092167187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004848952647030043</v>
+      </c>
+      <c r="C7">
+        <v>-0.05668775179519661</v>
+      </c>
+      <c r="D7">
+        <v>0.03356100819948166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0003657950736699194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005747182593802426</v>
+      </c>
+      <c r="C8">
+        <v>-0.03923775653460282</v>
+      </c>
+      <c r="D8">
+        <v>0.04306445807561062</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003929397080421537</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004279522778833777</v>
+      </c>
+      <c r="C9">
+        <v>-0.0706486910018419</v>
+      </c>
+      <c r="D9">
+        <v>0.07010852394189272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.004566594947486199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.00545246791719811</v>
+      </c>
+      <c r="C10">
+        <v>-0.05900021484940213</v>
+      </c>
+      <c r="D10">
+        <v>-0.2000100472383846</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002615739512599784</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005480177853688376</v>
+      </c>
+      <c r="C11">
+        <v>-0.08070398688222442</v>
+      </c>
+      <c r="D11">
+        <v>0.05980031945863997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0005237197891240981</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004092604760849974</v>
+      </c>
+      <c r="C12">
+        <v>-0.06447573881057664</v>
+      </c>
+      <c r="D12">
+        <v>0.04521096500295572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.00340878902517782</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008650984523851867</v>
+      </c>
+      <c r="C13">
+        <v>-0.06657544690039316</v>
+      </c>
+      <c r="D13">
+        <v>0.06610518537876818</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001192299699879326</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001595096504349482</v>
+      </c>
+      <c r="C14">
+        <v>-0.04664501164665485</v>
+      </c>
+      <c r="D14">
+        <v>0.006686095589320487</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0008497884213347052</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006004634814528114</v>
+      </c>
+      <c r="C15">
+        <v>-0.04299706049274852</v>
+      </c>
+      <c r="D15">
+        <v>0.030301854470435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001131492858628677</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005044494635130186</v>
+      </c>
+      <c r="C16">
+        <v>-0.06624242059959803</v>
+      </c>
+      <c r="D16">
+        <v>0.04625826209875536</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>7.994585746473083e-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008797878701644116</v>
+      </c>
+      <c r="C20">
+        <v>-0.06632363585549007</v>
+      </c>
+      <c r="D20">
+        <v>0.04671548868920358</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.0053119369281514</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009755249110207566</v>
+      </c>
+      <c r="C21">
+        <v>-0.02252512175092228</v>
+      </c>
+      <c r="D21">
+        <v>0.03319954535577332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01774812444848774</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006836848279362663</v>
+      </c>
+      <c r="C22">
+        <v>-0.09452984194688048</v>
+      </c>
+      <c r="D22">
+        <v>0.1014897807487924</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01805872790932255</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006656587127649148</v>
+      </c>
+      <c r="C23">
+        <v>-0.09532476715808959</v>
+      </c>
+      <c r="D23">
+        <v>0.1017025881658076</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001812450880179858</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005113670946876168</v>
+      </c>
+      <c r="C24">
+        <v>-0.07544758002627379</v>
+      </c>
+      <c r="D24">
+        <v>0.05847493075934301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003800961990692894</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002864857113487288</v>
+      </c>
+      <c r="C25">
+        <v>-0.07808191754491517</v>
+      </c>
+      <c r="D25">
+        <v>0.06566923134681639</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.005603904682608071</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003530137470297268</v>
+      </c>
+      <c r="C26">
+        <v>-0.04147327113427433</v>
+      </c>
+      <c r="D26">
+        <v>0.0236015712831172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.003867278890171966</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0009759762428368045</v>
+      </c>
+      <c r="C28">
+        <v>-0.1069967307695874</v>
+      </c>
+      <c r="D28">
+        <v>-0.3190779519032317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.000978736653587689</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003068704295276581</v>
+      </c>
+      <c r="C29">
+        <v>-0.04891570340102658</v>
+      </c>
+      <c r="D29">
+        <v>0.002444490837222316</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.002996036652306367</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009042624822825342</v>
+      </c>
+      <c r="C30">
+        <v>-0.1431360587392468</v>
+      </c>
+      <c r="D30">
+        <v>0.1010419942513903</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001045280814462993</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006178997873771813</v>
+      </c>
+      <c r="C31">
+        <v>-0.04569860113090792</v>
+      </c>
+      <c r="D31">
+        <v>0.03216735173726848</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-7.514084877551962e-06</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004009341624301884</v>
+      </c>
+      <c r="C32">
+        <v>-0.04278713583202176</v>
+      </c>
+      <c r="D32">
+        <v>0.01882884292712789</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.003044656914090622</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008172960056189711</v>
+      </c>
+      <c r="C33">
+        <v>-0.08709578831256889</v>
+      </c>
+      <c r="D33">
+        <v>0.06853616915042646</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004217559044691187</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.00392432232306441</v>
+      </c>
+      <c r="C34">
+        <v>-0.05797153466517597</v>
+      </c>
+      <c r="D34">
+        <v>0.05136793716532221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.00220980580392176</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.00486103820105204</v>
+      </c>
+      <c r="C35">
+        <v>-0.03943853815632071</v>
+      </c>
+      <c r="D35">
+        <v>0.01283094396925921</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004081583144087552</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001343669382879627</v>
+      </c>
+      <c r="C36">
+        <v>-0.02409170558136072</v>
+      </c>
+      <c r="D36">
+        <v>0.02193797232086801</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002471117326305687</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009492419960672882</v>
+      </c>
+      <c r="C38">
+        <v>-0.03450836233000704</v>
+      </c>
+      <c r="D38">
+        <v>0.0178805054816557</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.0120487283552762</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0007968970796186534</v>
+      </c>
+      <c r="C39">
+        <v>-0.1169547734989789</v>
+      </c>
+      <c r="D39">
+        <v>0.07065914793119059</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.008917958636189214</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002157518274329265</v>
+      </c>
+      <c r="C40">
+        <v>-0.08792147899614121</v>
+      </c>
+      <c r="D40">
+        <v>0.01553057921289398</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0003106892558764885</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007263284111338741</v>
+      </c>
+      <c r="C41">
+        <v>-0.03833383879806478</v>
+      </c>
+      <c r="D41">
+        <v>0.03433049979083559</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002907933812811263</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003660947804639214</v>
+      </c>
+      <c r="C43">
+        <v>-0.05210564021279578</v>
+      </c>
+      <c r="D43">
+        <v>0.02265454959725362</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.00282831818190537</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003125681979887404</v>
+      </c>
+      <c r="C44">
+        <v>-0.1110613885144193</v>
+      </c>
+      <c r="D44">
+        <v>0.07020173196554687</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.00142586484244102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002282225383166735</v>
+      </c>
+      <c r="C46">
+        <v>-0.0337896025870134</v>
+      </c>
+      <c r="D46">
+        <v>0.03023247576568796</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0003648471386562606</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002665269458329923</v>
+      </c>
+      <c r="C47">
+        <v>-0.03718139886828744</v>
+      </c>
+      <c r="D47">
+        <v>0.02538824273636957</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003695510756332781</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006438667816855797</v>
+      </c>
+      <c r="C48">
+        <v>-0.02949771934836655</v>
+      </c>
+      <c r="D48">
+        <v>0.03045607544198208</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01220022102451052</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01500898017328286</v>
+      </c>
+      <c r="C49">
+        <v>-0.1829389835070825</v>
+      </c>
+      <c r="D49">
+        <v>0.01194211051535732</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0006565656401834311</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003567047416779161</v>
+      </c>
+      <c r="C50">
+        <v>-0.04396690286145328</v>
+      </c>
+      <c r="D50">
+        <v>0.03501006235155125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0007489446947474261</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004448173973339698</v>
+      </c>
+      <c r="C51">
+        <v>-0.02663538934124684</v>
+      </c>
+      <c r="D51">
+        <v>0.01895757426463155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.00094128971429692</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02060455868141866</v>
+      </c>
+      <c r="C53">
+        <v>-0.1693092063963972</v>
+      </c>
+      <c r="D53">
+        <v>0.03828768436306765</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.00164083010733099</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008626155187300566</v>
+      </c>
+      <c r="C54">
+        <v>-0.05506686635288682</v>
+      </c>
+      <c r="D54">
+        <v>0.04123695177541286</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.00398781851723869</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009502606982752397</v>
+      </c>
+      <c r="C55">
+        <v>-0.1098906081269224</v>
+      </c>
+      <c r="D55">
+        <v>0.04575666257016266</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.003248911194799344</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01999745843928149</v>
+      </c>
+      <c r="C56">
+        <v>-0.1749433982209623</v>
+      </c>
+      <c r="D56">
+        <v>0.03717879764208604</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007131972552843461</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01958648118509874</v>
+      </c>
+      <c r="C58">
+        <v>-0.1120708217539296</v>
+      </c>
+      <c r="D58">
+        <v>0.04739801194344506</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006251801601203678</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009467411812596752</v>
+      </c>
+      <c r="C59">
+        <v>-0.1626459577847102</v>
+      </c>
+      <c r="D59">
+        <v>-0.3081854577551795</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.003390049677664827</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02327513798210654</v>
+      </c>
+      <c r="C60">
+        <v>-0.2207485350699835</v>
+      </c>
+      <c r="D60">
+        <v>0.02750942841865262</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01384127282642263</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001874301565683014</v>
+      </c>
+      <c r="C61">
+        <v>-0.09550610551406935</v>
+      </c>
+      <c r="D61">
+        <v>0.05715481759265609</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1685539415318817</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1445451124036997</v>
+      </c>
+      <c r="C62">
+        <v>-0.09059693001681782</v>
+      </c>
+      <c r="D62">
+        <v>0.0525053296760221</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001156201186285931</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006202011561136128</v>
+      </c>
+      <c r="C63">
+        <v>-0.05608441659055388</v>
+      </c>
+      <c r="D63">
+        <v>0.02390775754746465</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.004667397717963724</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01499843510437579</v>
+      </c>
+      <c r="C64">
+        <v>-0.104358341189809</v>
+      </c>
+      <c r="D64">
+        <v>0.06052331720709406</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002517437748771879</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01755263732691294</v>
+      </c>
+      <c r="C65">
+        <v>-0.1209806420823043</v>
+      </c>
+      <c r="D65">
+        <v>0.01723461201447206</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.006928260477546118</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01280408168496517</v>
+      </c>
+      <c r="C66">
+        <v>-0.1601227654528246</v>
+      </c>
+      <c r="D66">
+        <v>0.1120602347222858</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.00385935155657589</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01562089695249972</v>
+      </c>
+      <c r="C67">
+        <v>-0.06557080643464316</v>
+      </c>
+      <c r="D67">
+        <v>0.02565792628788984</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006045903536056958</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0006461794118750228</v>
+      </c>
+      <c r="C68">
+        <v>-0.0875819488609012</v>
+      </c>
+      <c r="D68">
+        <v>-0.253370539422918</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002673225780852853</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006050774983855664</v>
+      </c>
+      <c r="C69">
+        <v>-0.05028345235707639</v>
+      </c>
+      <c r="D69">
+        <v>0.03963617571537816</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-4.578280068168064e-06</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001797274523847079</v>
+      </c>
+      <c r="C70">
+        <v>-0.00241980654214842</v>
+      </c>
+      <c r="D70">
+        <v>0.001197507518770667</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>5.398383225577044e-05</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005903413859313425</v>
+      </c>
+      <c r="C71">
+        <v>-0.09774276521473631</v>
+      </c>
+      <c r="D71">
+        <v>-0.3023561159309963</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.004548670101037877</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.0157381213356996</v>
+      </c>
+      <c r="C72">
+        <v>-0.1525540533345075</v>
+      </c>
+      <c r="D72">
+        <v>0.02114384885862671</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01159056610877266</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02949768938362746</v>
+      </c>
+      <c r="C73">
+        <v>-0.2753512988229958</v>
+      </c>
+      <c r="D73">
+        <v>0.04725484414664054</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004525013166632504</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001722399187722667</v>
+      </c>
+      <c r="C74">
+        <v>-0.1052595646358774</v>
+      </c>
+      <c r="D74">
+        <v>0.03782207249785789</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002170017566458667</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.0109351930438171</v>
+      </c>
+      <c r="C75">
+        <v>-0.1289818481098013</v>
+      </c>
+      <c r="D75">
+        <v>0.02480059026311702</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009721127324131032</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02174326385757849</v>
+      </c>
+      <c r="C76">
+        <v>-0.1504108480363233</v>
+      </c>
+      <c r="D76">
+        <v>0.06690588110624969</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001053315457852093</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02343275391230738</v>
+      </c>
+      <c r="C77">
+        <v>-0.129543235342765</v>
+      </c>
+      <c r="D77">
+        <v>0.05299224858753242</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0009628705945032729</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01444020251413888</v>
+      </c>
+      <c r="C78">
+        <v>-0.09522791866196527</v>
+      </c>
+      <c r="D78">
+        <v>0.06558885772989713</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02395613946615375</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.0375373916959828</v>
+      </c>
+      <c r="C79">
+        <v>-0.1560573088598852</v>
+      </c>
+      <c r="D79">
+        <v>0.03678078912542154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.00448840750752774</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.0105828982531689</v>
+      </c>
+      <c r="C80">
+        <v>-0.04311594019331644</v>
+      </c>
+      <c r="D80">
+        <v>0.02887839378316547</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001098106680182244</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01508847828289606</v>
+      </c>
+      <c r="C81">
+        <v>-0.1269698702724593</v>
+      </c>
+      <c r="D81">
+        <v>0.0433205322275297</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.006329519183205239</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01992282111508033</v>
+      </c>
+      <c r="C82">
+        <v>-0.1437978544090902</v>
+      </c>
+      <c r="D82">
+        <v>0.044942347986481</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.009304339167228049</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009998102541064369</v>
+      </c>
+      <c r="C83">
+        <v>-0.05669983425097402</v>
+      </c>
+      <c r="D83">
+        <v>0.05650506585348151</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01368475478362889</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01165450393632508</v>
+      </c>
+      <c r="C84">
+        <v>-0.03678121046639797</v>
+      </c>
+      <c r="D84">
+        <v>-0.008118484247845155</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.0148826600029894</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02808419212143756</v>
+      </c>
+      <c r="C85">
+        <v>-0.1268149183096641</v>
+      </c>
+      <c r="D85">
+        <v>0.04897961214256032</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.0005787478564948428</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005461173409378531</v>
+      </c>
+      <c r="C86">
+        <v>-0.04961454736351296</v>
+      </c>
+      <c r="D86">
+        <v>0.02282008590650497</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.004128037110317249</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.0102427484567891</v>
+      </c>
+      <c r="C87">
+        <v>-0.1320471549859954</v>
+      </c>
+      <c r="D87">
+        <v>0.06785147139762725</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01268499647740714</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002892664270869142</v>
+      </c>
+      <c r="C88">
+        <v>-0.06764823963099668</v>
+      </c>
+      <c r="D88">
+        <v>0.01374326039171475</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01405899849365883</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001603637726961914</v>
+      </c>
+      <c r="C89">
+        <v>-0.145971061652557</v>
+      </c>
+      <c r="D89">
+        <v>-0.3436717971618024</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002070951418883128</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006706099901422685</v>
+      </c>
+      <c r="C90">
+        <v>-0.1224440387318227</v>
+      </c>
+      <c r="D90">
+        <v>-0.3267849840017507</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001604222133456824</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01047319630862778</v>
+      </c>
+      <c r="C91">
+        <v>-0.1032286039457679</v>
+      </c>
+      <c r="D91">
+        <v>0.02482649067410198</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008047992237249401</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0006637585381979371</v>
+      </c>
+      <c r="C92">
+        <v>-0.1362385539253617</v>
+      </c>
+      <c r="D92">
+        <v>-0.3325249668837487</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-4.28855722817362e-05</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004681335295416683</v>
+      </c>
+      <c r="C93">
+        <v>-0.1048452244567365</v>
+      </c>
+      <c r="D93">
+        <v>-0.3102713202230513</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.004417981808839366</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02245005717276209</v>
+      </c>
+      <c r="C94">
+        <v>-0.1503803049608885</v>
+      </c>
+      <c r="D94">
+        <v>0.05202755684555963</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004952762127714772</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01634496449828166</v>
+      </c>
+      <c r="C95">
+        <v>-0.1259181994841943</v>
+      </c>
+      <c r="D95">
+        <v>0.06578741701895773</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.001423854538649112</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03539151833911678</v>
+      </c>
+      <c r="C97">
+        <v>-0.209238759883505</v>
+      </c>
+      <c r="D97">
+        <v>-0.006871765186528925</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.003632401098094405</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03637271211841827</v>
+      </c>
+      <c r="C98">
+        <v>-0.2463075303945233</v>
+      </c>
+      <c r="D98">
+        <v>0.05103769686856909</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9838421786860675</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9824235218332616</v>
+      </c>
+      <c r="C99">
+        <v>0.1143051983749293</v>
+      </c>
+      <c r="D99">
+        <v>-0.02851274270342924</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0008847947130800174</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003104608707235462</v>
+      </c>
+      <c r="C101">
+        <v>-0.04910375077287147</v>
+      </c>
+      <c r="D101">
+        <v>0.002505703382066075</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
